--- a/experiment/analysis.xlsx
+++ b/experiment/analysis.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nghe\nghe\Phd\research\neural_network\DeepCegar-1.3\DeepCegar\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23700C-7527-4135-8DEF-B3AD41C01BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED70F6C-F73C-47C2-BD5F-5EDA44326587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="first method" sheetId="1" r:id="rId2"/>
-    <sheet name="Second method" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="first method" sheetId="1" r:id="rId3"/>
+    <sheet name="Second method" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'first method'!$A$1:$M$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Second method'!$A$1:$M$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'first method'!$A$1:$M$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Second method'!$A$1:$M$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="619">
   <si>
     <t>Model</t>
   </si>
@@ -1855,6 +1856,45 @@
   </si>
   <si>
     <t>[(777, 378.171626329422), (1017, 522.5762302875519), (1271, 599.4614725112915), (509, 260.71546268463135), (1271, 564.9388155937195), (1017, 499.4747302532196), (1017, 500.4889750480652), (1017, 523.0265820026398), (1017, 527.4310655593872), (509, 263.10667514801025), (509, 267.8315842151642), (763, 404.1657466888428), (1017, 527.582775592804), (1017, 627.2731781005859), (763, 424.8132658004761), (1017, 556.4261639118195), (881, 473.8309223651886), (1017, 542.3476028442383), (1271, 634.4865281581879), (867, 762.4958627223969), (1017, 850.6550703048706), (1017, 829.6315529346466), (1017, 801.2278015613556), (509, 406.110987663269), (509, 406.0164968967438), (1271, 585.0236709117889), (763, 338.1613304615021), (1017, 462.42320728302), (519, 240.5463435649872), (763, 348.643568277359), (1017, 457.3174314498901), (763, 342.54944586753845), (1023, 517.8946042060852), (763, 391.8076496124268), (1017, 505.54241156578064), (763, 380.7187418937683), (1017, 475.9875719547272), (1271, 587.3362674713135), (1017, 516.9900207519531), (1271, 602.1909215450287), (1017, 500.2808568477631), (1271, 586.7613620758057), (1271, 598.3225135803223), (1017, 503.43482065200806), (1271, 769.4317829608917), (1017, 522.8454217910767), (1017, 537.1138651371002), (1271, 620.8871231079102), (1017, 527.4197995662689), (1017, 518.0976595878601), (1017, 492.30709314346313), (1017, 508.50401282310486), (255, 124.9096336364746), (1017, 514.7773015499115), (1017, 499.83619713783264), (255, 123.92062330245972), (1271, 584.5730457305908), (517, 245.955290555954), (1271, 606.1477174758911), (509, 267.86067962646484), (763, 381.16683411598206), (1271, 579.540219783783), (1271, 574.0184800624847), (1017, 501.4988226890564), (763, 370.1855642795563), (1017, 473.4533503055573), (1271, 750.5996596813202), (1271, 716.054544210434), (255, 132.54396271705627), (763, 388.0427780151367), (1017, 527.4456706047058), (1017, 558.0671339035034), (1017, 578.0276365280151), (763, 414.5452642440796), (1271, 601.4956707954407), (1017, 493.33009004592896), (1271, 588.1376268863678), (763, 370.868837594986), (1271, 598.3619232177734), (763, 395.4072844982147), (763, 383.7905611991882), (1017, 523.6329123973846), (1271, 589.996533870697), (1017, 560.2278304100037), (509, 305.6320686340332), (1017, 534.8108930587769), (255, 138.46703267097473), (1271, 614.9856221675873), (1017, 533.7904922962189), (763, 362.46495366096497), (1271, 566.3626706600189), (1271, 576.3877964019775), (763, 359.8639748096466), (1271, 552.437173128128), (1017, 468.2127957344055), (1271, 600.9974279403687)]</t>
+  </si>
+  <si>
+    <t>Num Improve</t>
+  </si>
+  <si>
+    <t>Average Improve</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_3_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_3_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_3_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_3_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_4_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_4_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_4_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_4_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_5_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_5_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_5_30</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E8AEC6-3DB4-4307-912C-DDCC3EC24309}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -4078,6 +4118,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDAD162-FE77-424A-9400-ADC0D0878421}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17.66910806940513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11.732205130106321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11.30290101745641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.8193463413213111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="1">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.56435029790681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="1">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.252403533829879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.13177390274736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.5491144507778021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C10" s="1">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13.39659970772626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C11" s="1">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13.26617181836521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" s="1">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12.035256753026941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M143"/>
@@ -9780,7 +10004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E49D29-4AE9-47C5-9F26-93563C269AEE}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M142"/>

--- a/experiment/analysis.xlsx
+++ b/experiment/analysis.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nghe\nghe\Phd\research\neural_network\DeepCegar-1.3\DeepCegar\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED70F6C-F73C-47C2-BD5F-5EDA44326587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06815E-AE42-4B87-A6B2-23A93A6F1AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="first method" sheetId="1" r:id="rId3"/>
-    <sheet name="Second method" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="first method" sheetId="1" r:id="rId4"/>
+    <sheet name="Second method" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'first method'!$A$1:$M$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Second method'!$A$1:$M$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'first method'!$A$1:$M$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Second method'!$A$1:$M$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="676">
   <si>
     <t>Model</t>
   </si>
@@ -1895,6 +1896,177 @@
   </si>
   <si>
     <t>limit_test_mnist_relu_5_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_3_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_4_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_5_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_relu_5_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_3_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_3_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_3_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_3_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_3_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_4_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_4_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_4_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_4_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_4_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_5_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_5_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_5_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_5_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_sigmoid_5_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_3_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_3_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_3_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_3_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_3_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_4_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_4_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_4_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_4_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_4_50</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_5_10</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_5_20</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_5_30</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_5_40</t>
+  </si>
+  <si>
+    <t>limit_test_mnist_tanh_5_50</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_3_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_3_20</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_3_30</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_3_40</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_3_50</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_4_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_4_20</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_4_30</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_4_40</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_4_50</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_5_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_5_20</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_5_30</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_5_40</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_relu_5_50</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_3_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_3_20</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_3_30</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_4_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_4_20</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_4_30</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_5_10</t>
+  </si>
+  <si>
+    <t>causality_test_mnist_sigmoid_5_50</t>
   </si>
 </sst>
 </file>
@@ -4119,19 +4291,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDAD162-FE77-424A-9400-ADC0D0878421}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4203,13 +4376,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C6" s="1">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
-        <v>15.56435029790681</v>
+        <v>7.0832530394520603</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4217,13 +4390,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C7" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
-        <v>13.252403533829879</v>
+        <v>15.56435029790681</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4231,13 +4404,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C8" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>12.13177390274736</v>
+        <v>13.252403533829879</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4245,13 +4418,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C9" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
-        <v>8.5491144507778021</v>
+        <v>12.13177390274736</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4259,13 +4432,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C10" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
-        <v>13.39659970772626</v>
+        <v>8.5491144507778021</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4273,13 +4446,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C11" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
-        <v>13.26617181836521</v>
+        <v>7.3303961880871604</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4287,13 +4460,480 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" s="1">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13.39659970772626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C13" s="1">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13.26617181836521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <v>70</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>12.035256753026941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.3502956222770468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.6736673854099742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C17" s="1">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10.84656456990052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.4376250191843774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.0010747694571194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.6500222439334937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.7346296237698917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" s="1">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10.54084338976968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.362063846851723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.2656556219309287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9.4571301714158871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.2025090726891978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.0044451363518601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.6695721334421876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C29" s="1">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.8638655689043748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9.3715458051169502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.654596773840197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C32" s="1">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10.000043432659529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11.56873355402767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>14.12414965986394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.9204545454545467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1">
+        <v>11.62876546617246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12.034181096681101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>17.857142857142851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9.9999999999999911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14.285714285714279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="1">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11.684114649647739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>18.562271062271058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12.28632478632478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4302,6 +4942,359 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D162C062-7620-4AB8-8B6E-3AFAD4714D15}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18.333348326285499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12.028082144929749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.27717958471705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" s="1">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.3887390152193273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="1">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.4973010971302472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15.417057788401531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="1">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13.4192982733253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.472663716932811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.64463641145054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.2689245954809962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C12" s="1">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13.63178415920261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C13" s="1">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13.35219909978729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="1">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12.7338675550837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="1">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10.266482143553709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" s="1">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.24223464782823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C17" s="1">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10.82101150287094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" s="1">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.0075284849632578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" s="1">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.7585171421754957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" s="1">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.9211448819805437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.0515456748163405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C22" s="1">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.2473436313551343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C23" s="1">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12.372622705491221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C24" s="1">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.5872674337082504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M143"/>
@@ -10004,12 +10997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E49D29-4AE9-47C5-9F26-93563C269AEE}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E55" sqref="E55:E97"/>
     </sheetView>
   </sheetViews>
